--- a/sample_output.xlsx
+++ b/sample_output.xlsx
@@ -1198,7 +1198,7 @@
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA INGENIERÍA S.A.S.</t>
+          <t>Constructora Soluciones S.A.S.</t>
         </is>
       </c>
       <c r="E8" s="1" t="n"/>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>Carlos Andrés Martínez Gómez</t>
+          <t>Carlos Alberto Gómez</t>
         </is>
       </c>
       <c r="E9" s="1" t="n"/>
@@ -1316,7 +1316,11 @@
           <t>C.C:</t>
         </is>
       </c>
-      <c r="AM9" s="1" t="n"/>
+      <c r="AM9" s="1" t="inlineStr">
+        <is>
+          <t>1023456789</t>
+        </is>
+      </c>
       <c r="AN9" s="19" t="n"/>
       <c r="AO9" s="60" t="n"/>
       <c r="AP9" s="60" t="n"/>
@@ -1393,7 +1397,7 @@
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>Carrera 45 # 23-56 Oficina 301</t>
+          <t>Calle 45 # 23-56, Barrio Centro</t>
         </is>
       </c>
       <c r="E11" s="1" t="n"/>
@@ -1452,7 +1456,11 @@
           <t>Ciudad:</t>
         </is>
       </c>
-      <c r="D12" s="1" t="n"/>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>Medellín</t>
+        </is>
+      </c>
       <c r="E12" s="1" t="n"/>
       <c r="F12" s="1" t="n"/>
       <c r="G12" s="61" t="n"/>
@@ -1482,7 +1490,7 @@
       </c>
       <c r="AB12" s="1" t="inlineStr">
         <is>
-          <t>Cundinamarca</t>
+          <t>Antioquia</t>
         </is>
       </c>
       <c r="AC12" s="1" t="n"/>
@@ -1517,7 +1525,11 @@
           <t>Teléfono:</t>
         </is>
       </c>
-      <c r="D13" s="1" t="n"/>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>+57 4 5551234</t>
+        </is>
+      </c>
       <c r="E13" s="1" t="n"/>
       <c r="F13" s="1" t="n"/>
       <c r="G13" s="61" t="n"/>
@@ -1544,7 +1556,7 @@
       </c>
       <c r="Y13" s="1" t="inlineStr">
         <is>
-          <t>contacto@constructoraingenieria.com</t>
+          <t>contacto@constructorasoluciones.com</t>
         </is>
       </c>
       <c r="Z13" s="1" t="n"/>
@@ -1591,7 +1603,7 @@
       </c>
       <c r="W14" s="1" t="inlineStr">
         <is>
-          <t>https://www.constructoraingenieria.com</t>
+          <t>https://www.constructorasoluciones.com</t>
         </is>
       </c>
       <c r="X14" s="1" t="n"/>
@@ -1686,7 +1698,7 @@
       </c>
       <c r="D16" s="1" t="inlineStr">
         <is>
-          <t>Construcción de obras civiles</t>
+          <t>Construcción de edificaciones</t>
         </is>
       </c>
       <c r="E16" s="1" t="n"/>
@@ -2178,7 +2190,7 @@
       </c>
       <c r="S24" s="1" t="inlineStr">
         <is>
-          <t>Calle 10 # 45-67 Apartamento 202</t>
+          <t>Carrera 50 # 30-10, Medellín</t>
         </is>
       </c>
       <c r="T24" s="1" t="n"/>
@@ -2232,7 +2244,7 @@
       </c>
       <c r="D25" s="1" t="inlineStr">
         <is>
-          <t>ana.rodriguez@email.com</t>
+          <t>ana.rodriguez@example.com</t>
         </is>
       </c>
       <c r="E25" s="1" t="n"/>
@@ -2265,7 +2277,7 @@
       </c>
       <c r="AC25" s="1" t="inlineStr">
         <is>
-          <t>+57 310 4567890</t>
+          <t>+57 300 1234567</t>
         </is>
       </c>
       <c r="AD25" s="1" t="n"/>
@@ -2364,7 +2376,11 @@
           <t>Nombre:</t>
         </is>
       </c>
-      <c r="E28" s="1" t="n"/>
+      <c r="E28" s="1" t="inlineStr">
+        <is>
+          <t>Juan Carlos Martínez</t>
+        </is>
+      </c>
       <c r="F28" s="1" t="n"/>
       <c r="G28" s="1" t="n"/>
       <c r="H28" s="1" t="n"/>
@@ -2418,7 +2434,7 @@
       </c>
       <c r="AS28" s="1" t="inlineStr">
         <is>
-          <t>40%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="AT28" s="1" t="n"/>
@@ -2839,7 +2855,7 @@
       </c>
       <c r="D37" s="1" t="inlineStr">
         <is>
-          <t>Edificio Comercial Centro</t>
+          <t>Apartamento en Medellín</t>
         </is>
       </c>
       <c r="E37" s="1" t="n"/>
@@ -2901,7 +2917,11 @@
           <t>Descripción:</t>
         </is>
       </c>
-      <c r="E38" s="1" t="n"/>
+      <c r="E38" s="1" t="inlineStr">
+        <is>
+          <t>Apartamento de 3 habitaciones en El Poblado</t>
+        </is>
+      </c>
       <c r="F38" s="1" t="n"/>
       <c r="G38" s="1" t="n"/>
       <c r="H38" s="1" t="n"/>
@@ -2944,7 +2964,11 @@
           <t>Valor:</t>
         </is>
       </c>
-      <c r="AN38" s="1" t="n"/>
+      <c r="AN38" s="1" t="inlineStr">
+        <is>
+          <t>350000000</t>
+        </is>
+      </c>
       <c r="AO38" s="1" t="n"/>
       <c r="AP38" s="35" t="inlineStr">
         <is>
@@ -2972,11 +2996,7 @@
           <t>Descripción:</t>
         </is>
       </c>
-      <c r="E39" s="1" t="inlineStr">
-        <is>
-          <t>Edificio de oficinas de 5 pisos en el centro de Medellín</t>
-        </is>
-      </c>
+      <c r="E39" s="1" t="n"/>
       <c r="F39" s="1" t="n"/>
       <c r="G39" s="1" t="n"/>
       <c r="H39" s="1" t="n"/>
@@ -3019,11 +3039,7 @@
           <t>Valor:</t>
         </is>
       </c>
-      <c r="AN39" s="1" t="inlineStr">
-        <is>
-          <t>3500000000</t>
-        </is>
-      </c>
+      <c r="AN39" s="1" t="n"/>
       <c r="AO39" s="1" t="n"/>
       <c r="AP39" s="35" t="inlineStr">
         <is>
@@ -3165,7 +3181,11 @@
           <t>Tipo/Modelo:</t>
         </is>
       </c>
-      <c r="E42" s="1" t="n"/>
+      <c r="E42" s="1" t="inlineStr">
+        <is>
+          <t>Toyota Hilux</t>
+        </is>
+      </c>
       <c r="F42" s="1" t="n"/>
       <c r="G42" s="1" t="n"/>
       <c r="H42" s="1" t="n"/>
@@ -3190,7 +3210,11 @@
           <t>Marca:</t>
         </is>
       </c>
-      <c r="Z42" s="1" t="n"/>
+      <c r="Z42" s="1" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
       <c r="AA42" s="1" t="n"/>
       <c r="AB42" s="19" t="n"/>
       <c r="AC42" s="60" t="n"/>
@@ -3205,7 +3229,11 @@
           <t>Año:</t>
         </is>
       </c>
-      <c r="AK42" s="1" t="n"/>
+      <c r="AK42" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
       <c r="AL42" s="19" t="n"/>
       <c r="AM42" s="60" t="n"/>
       <c r="AN42" s="60" t="n"/>
@@ -3216,7 +3244,11 @@
           <t>Placa:</t>
         </is>
       </c>
-      <c r="AR42" s="1" t="n"/>
+      <c r="AR42" s="1" t="inlineStr">
+        <is>
+          <t>ABC123</t>
+        </is>
+      </c>
       <c r="AS42" s="1" t="n"/>
       <c r="AT42" s="19" t="n"/>
       <c r="AU42" s="60" t="n"/>
@@ -3236,11 +3268,7 @@
           <t>Tipo/Modelo:</t>
         </is>
       </c>
-      <c r="E43" s="1" t="inlineStr">
-        <is>
-          <t>Toyota Hilux</t>
-        </is>
-      </c>
+      <c r="E43" s="1" t="n"/>
       <c r="F43" s="1" t="n"/>
       <c r="G43" s="1" t="n"/>
       <c r="H43" s="1" t="n"/>
@@ -3265,11 +3293,7 @@
           <t>Marca:</t>
         </is>
       </c>
-      <c r="Z43" s="1" t="inlineStr">
-        <is>
-          <t>Toyota</t>
-        </is>
-      </c>
+      <c r="Z43" s="1" t="n"/>
       <c r="AA43" s="1" t="n"/>
       <c r="AB43" s="19" t="n"/>
       <c r="AC43" s="60" t="n"/>
@@ -3284,11 +3308,7 @@
           <t>Año:</t>
         </is>
       </c>
-      <c r="AK43" s="1" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
+      <c r="AK43" s="1" t="n"/>
       <c r="AL43" s="19" t="n"/>
       <c r="AM43" s="60" t="n"/>
       <c r="AN43" s="60" t="n"/>
@@ -3299,11 +3319,7 @@
           <t>Placa:</t>
         </is>
       </c>
-      <c r="AR43" s="1" t="inlineStr">
-        <is>
-          <t>ABC123</t>
-        </is>
-      </c>
+      <c r="AR43" s="1" t="n"/>
       <c r="AS43" s="1" t="n"/>
       <c r="AT43" s="19" t="n"/>
       <c r="AU43" s="60" t="n"/>
@@ -3425,7 +3441,11 @@
     <row r="46" ht="17.25" customHeight="1" s="57">
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="5" t="n"/>
-      <c r="C46" s="59" t="inlineStr"/>
+      <c r="C46" s="59" t="inlineStr">
+        <is>
+          <t>REFERENCIAS</t>
+        </is>
+      </c>
       <c r="AY46" s="9" t="n"/>
     </row>
     <row r="47" ht="17.25" customHeight="1" s="57">
@@ -3491,7 +3511,7 @@
       </c>
       <c r="D48" s="1" t="inlineStr">
         <is>
-          <t>[{"Empresa:": "Materiales de Construcción S.A.", "Límite:": "500000000", "Plazo de Pago:": "30 días", "Antigüedad (mes/año):": "24/2022", "Garantía:": "Carta de crédito"}, {"Empresa:": "Servicios Eléctricos Ltda.", "Límite:": "300000000", "Plazo de Pago:": "45 días", "Antigüedad (mes/año):": "36/2021", "Garantía:": "Póliza de seguro"}]</t>
+          <t>[{"Empresa:": "Ferretería Central", "Límite:": "50000000", "Plazo de Pago:": "30 días", "Antigüedad (mes/año):": "24 meses", "Garantía:": "Factura"}, {"Empresa:": "Materiales Construcción S.A.", "Límite:": "75000000", "Plazo de Pago:": "45 días", "Antigüedad (mes/año):": "36 meses", "Garantía:": "Carta de crédito"}]</t>
         </is>
       </c>
       <c r="E48" s="1" t="n"/>
@@ -3780,11 +3800,7 @@
           <t>Ciudad:</t>
         </is>
       </c>
-      <c r="W52" s="1" t="inlineStr">
-        <is>
-          <t>Bogotá</t>
-        </is>
-      </c>
+      <c r="W52" s="1" t="n"/>
       <c r="X52" s="1" t="n"/>
       <c r="Y52" s="19" t="n"/>
       <c r="Z52" s="60" t="n"/>
@@ -3805,11 +3821,7 @@
           <t>Teléfono:</t>
         </is>
       </c>
-      <c r="AN52" s="1" t="inlineStr">
-        <is>
-          <t>+57 1 2345678</t>
-        </is>
-      </c>
+      <c r="AN52" s="1" t="n"/>
       <c r="AO52" s="1" t="n"/>
       <c r="AP52" s="1" t="n"/>
       <c r="AQ52" s="19" t="n"/>
@@ -4086,7 +4098,7 @@
       </c>
       <c r="D58" s="1" t="inlineStr">
         <is>
-          <t>1500000000</t>
+          <t>100000000</t>
         </is>
       </c>
       <c r="E58" s="1" t="n"/>
@@ -4211,7 +4223,7 @@
       <c r="B60" s="5" t="n"/>
       <c r="C60" s="59" t="inlineStr">
         <is>
-          <t>[{"Telefono:": "+57 310 1234567"}, {"Telefono:": "+57 320 7654321"}]</t>
+          <t>PERSONAS DE CONTACTO</t>
         </is>
       </c>
       <c r="AY60" s="9" t="n"/>
@@ -4323,7 +4335,11 @@
           <t xml:space="preserve">Telefono: </t>
         </is>
       </c>
-      <c r="AL62" s="1" t="n"/>
+      <c r="AL62" s="1" t="inlineStr">
+        <is>
+          <t>+57 4 5556789</t>
+        </is>
+      </c>
       <c r="AM62" s="1" t="n"/>
       <c r="AN62" s="1" t="n"/>
       <c r="AO62" s="19" t="n"/>
@@ -4824,7 +4840,11 @@
           <t>Firma del Representante Legal:</t>
         </is>
       </c>
-      <c r="D72" s="1" t="n"/>
+      <c r="D72" s="1" t="inlineStr">
+        <is>
+          <t>Carlos Alberto Gómez</t>
+        </is>
+      </c>
       <c r="E72" s="1" t="n"/>
       <c r="F72" s="1" t="n"/>
       <c r="G72" s="1" t="n"/>
@@ -4881,11 +4901,7 @@
           <t>Nombre:</t>
         </is>
       </c>
-      <c r="D73" s="1" t="inlineStr">
-        <is>
-          <t>Juan Carlos Torres</t>
-        </is>
-      </c>
+      <c r="D73" s="1" t="n"/>
       <c r="E73" s="1" t="n"/>
       <c r="F73" s="1" t="n"/>
       <c r="G73" s="19" t="n"/>
@@ -4910,11 +4926,7 @@
           <t>C.C:</t>
         </is>
       </c>
-      <c r="Y73" s="1" t="inlineStr">
-        <is>
-          <t>1023456789</t>
-        </is>
-      </c>
+      <c r="Y73" s="1" t="n"/>
       <c r="Z73" s="19" t="n"/>
       <c r="AA73" s="60" t="n"/>
       <c r="AB73" s="60" t="n"/>
@@ -4929,7 +4941,7 @@
       </c>
       <c r="AH73" s="1" t="inlineStr">
         <is>
-          <t>Bogotá, 2024-06-15</t>
+          <t>Medellín, 2024-06-15</t>
         </is>
       </c>
       <c r="AI73" s="1" t="n"/>
@@ -5077,11 +5089,7 @@
           <t>Original del formato de FORMULARIO DE CREDITO CONALDESA diligenciado y firmado</t>
         </is>
       </c>
-      <c r="E77" s="1" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
+      <c r="E77" s="1" t="n"/>
       <c r="F77" s="1" t="n"/>
       <c r="G77" s="1" t="n"/>
       <c r="H77" s="1" t="n"/>
@@ -5199,11 +5207,7 @@
           <t>Certificado de Existencia y Representación Legal con fecha de expedición no mayor a 30 días</t>
         </is>
       </c>
-      <c r="E79" s="1" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
+      <c r="E79" s="1" t="n"/>
       <c r="F79" s="1" t="n"/>
       <c r="G79" s="1" t="n"/>
       <c r="H79" s="1" t="n"/>
@@ -5379,7 +5383,7 @@
       </c>
       <c r="E82" s="1" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>fotocopia_cedula_carlos_gomez.pdf</t>
         </is>
       </c>
       <c r="F82" s="1" t="n"/>
@@ -5442,7 +5446,7 @@
       </c>
       <c r="E83" s="1" t="inlineStr">
         <is>
-          <t>[{"Banco:": "Banco de Bogotá", "Número de cuenta:": "1234567890", "Contacto:": "+57 1 2345678"}, {"Banco:": "Bancolombia", "Número de cuenta:": "0987654321", "Contacto:": "+57 1 8765432"}]</t>
+          <t>[{"Banco:": "Banco de Bogotá", "Número de Cuenta:": "1234567890", "Tipo de Cuenta:": "Corriente"}, {"Banco:": "Davivienda", "Número de Cuenta:": "0987654321", "Tipo de Cuenta:": "Ahorros"}]</t>
         </is>
       </c>
       <c r="F83" s="1" t="n"/>
@@ -5505,7 +5509,7 @@
       </c>
       <c r="E84" s="1" t="inlineStr">
         <is>
-          <t>[{"Empresa:": "Materiales de Construcción S.A.", "Contacto:": "+57 4 1234567"}, {"Empresa:": "Servicios Eléctricos Ltda.", "Contacto:": "+57 4 7654321"}]</t>
+          <t>[{"Empresa:": "Insumos Industriales S.A.", "Contacto:": "Laura Martínez", "Teléfono:": "+57 1 2345678"}, {"Empresa:": "Servicios Logísticos Ltda.", "Contacto:": "Pedro Sánchez", "Teléfono:": "+57 1 8765432"}]</t>
         </is>
       </c>
       <c r="F84" s="1" t="n"/>

--- a/sample_output.xlsx
+++ b/sample_output.xlsx
@@ -1275,7 +1275,7 @@
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>Carlos Alberto Gómez</t>
+          <t>Carlos Andrés Martínez</t>
         </is>
       </c>
       <c r="E9" s="1" t="n"/>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>Calle 45 # 23-56, Barrio Centro</t>
+          <t>Calle 45 # 23-67, Barrio La Esperanza</t>
         </is>
       </c>
       <c r="E11" s="1" t="n"/>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>Ana María Rodríguez Pérez</t>
+          <t>Ana María Gómez Pérez</t>
         </is>
       </c>
       <c r="E21" s="1" t="n"/>
@@ -2190,7 +2190,7 @@
       </c>
       <c r="S24" s="1" t="inlineStr">
         <is>
-          <t>Carrera 50 # 30-10, Medellín</t>
+          <t>Carrera 10 # 45-32, Medellín</t>
         </is>
       </c>
       <c r="T24" s="1" t="n"/>
@@ -2244,7 +2244,7 @@
       </c>
       <c r="D25" s="1" t="inlineStr">
         <is>
-          <t>ana.rodriguez@example.com</t>
+          <t>anamaria.gomez@gmail.com</t>
         </is>
       </c>
       <c r="E25" s="1" t="n"/>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="AC25" s="1" t="inlineStr">
         <is>
-          <t>+57 300 1234567</t>
+          <t>+57 310 4567890</t>
         </is>
       </c>
       <c r="AD25" s="1" t="n"/>
@@ -2378,7 +2378,7 @@
       </c>
       <c r="E28" s="1" t="inlineStr">
         <is>
-          <t>Juan Carlos Martínez</t>
+          <t>Juan Carlos Ramírez</t>
         </is>
       </c>
       <c r="F28" s="1" t="n"/>
@@ -2855,7 +2855,7 @@
       </c>
       <c r="D37" s="1" t="inlineStr">
         <is>
-          <t>Apartamento en Medellín</t>
+          <t>[{"Descripción:": "Oficina principal en Medellín", "Valor:": 350000000}]</t>
         </is>
       </c>
       <c r="E37" s="1" t="n"/>
@@ -2917,11 +2917,7 @@
           <t>Descripción:</t>
         </is>
       </c>
-      <c r="E38" s="1" t="inlineStr">
-        <is>
-          <t>Apartamento de 3 habitaciones en El Poblado</t>
-        </is>
-      </c>
+      <c r="E38" s="1" t="n"/>
       <c r="F38" s="1" t="n"/>
       <c r="G38" s="1" t="n"/>
       <c r="H38" s="1" t="n"/>
@@ -2964,11 +2960,7 @@
           <t>Valor:</t>
         </is>
       </c>
-      <c r="AN38" s="1" t="inlineStr">
-        <is>
-          <t>350000000</t>
-        </is>
-      </c>
+      <c r="AN38" s="1" t="n"/>
       <c r="AO38" s="1" t="n"/>
       <c r="AP38" s="35" t="inlineStr">
         <is>
@@ -3119,7 +3111,7 @@
       </c>
       <c r="D41" s="1" t="inlineStr">
         <is>
-          <t>Camioneta doble cabina</t>
+          <t>[{"Tipo/Modelo:": "Camioneta Toyota Hilux", "Marca:": "Toyota", "Año:": 2019, "Placa:": "ABC123"}]</t>
         </is>
       </c>
       <c r="E41" s="1" t="n"/>
@@ -3181,11 +3173,7 @@
           <t>Tipo/Modelo:</t>
         </is>
       </c>
-      <c r="E42" s="1" t="inlineStr">
-        <is>
-          <t>Toyota Hilux</t>
-        </is>
-      </c>
+      <c r="E42" s="1" t="n"/>
       <c r="F42" s="1" t="n"/>
       <c r="G42" s="1" t="n"/>
       <c r="H42" s="1" t="n"/>
@@ -3210,11 +3198,7 @@
           <t>Marca:</t>
         </is>
       </c>
-      <c r="Z42" s="1" t="inlineStr">
-        <is>
-          <t>Toyota</t>
-        </is>
-      </c>
+      <c r="Z42" s="1" t="n"/>
       <c r="AA42" s="1" t="n"/>
       <c r="AB42" s="19" t="n"/>
       <c r="AC42" s="60" t="n"/>
@@ -3229,11 +3213,7 @@
           <t>Año:</t>
         </is>
       </c>
-      <c r="AK42" s="1" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
+      <c r="AK42" s="1" t="n"/>
       <c r="AL42" s="19" t="n"/>
       <c r="AM42" s="60" t="n"/>
       <c r="AN42" s="60" t="n"/>
@@ -3244,11 +3224,7 @@
           <t>Placa:</t>
         </is>
       </c>
-      <c r="AR42" s="1" t="inlineStr">
-        <is>
-          <t>ABC123</t>
-        </is>
-      </c>
+      <c r="AR42" s="1" t="n"/>
       <c r="AS42" s="1" t="n"/>
       <c r="AT42" s="19" t="n"/>
       <c r="AU42" s="60" t="n"/>
@@ -3511,7 +3487,7 @@
       </c>
       <c r="D48" s="1" t="inlineStr">
         <is>
-          <t>[{"Empresa:": "Ferretería Central", "Límite:": "50000000", "Plazo de Pago:": "30 días", "Antigüedad (mes/año):": "24 meses", "Garantía:": "Factura"}, {"Empresa:": "Materiales Construcción S.A.", "Límite:": "75000000", "Plazo de Pago:": "45 días", "Antigüedad (mes/año):": "36 meses", "Garantía:": "Carta de crédito"}]</t>
+          <t>[{"Empresa:": "Ferretería Central", "Límite:": 50000000, "Plazo de Pago:": "30 días", "Antigüedad (mes/año):": "24 meses", "Garantía:": "Carta de crédito"}]</t>
         </is>
       </c>
       <c r="E48" s="1" t="n"/>
@@ -4842,7 +4818,7 @@
       </c>
       <c r="D72" s="1" t="inlineStr">
         <is>
-          <t>Carlos Alberto Gómez</t>
+          <t>Carlos Andrés Martínez</t>
         </is>
       </c>
       <c r="E72" s="1" t="n"/>
@@ -5383,7 +5359,7 @@
       </c>
       <c r="E82" s="1" t="inlineStr">
         <is>
-          <t>fotocopia_cedula_carlos_gomez.pdf</t>
+          <t>fotocopia_cedula_carlos_martinez.pdf</t>
         </is>
       </c>
       <c r="F82" s="1" t="n"/>
@@ -5446,7 +5422,7 @@
       </c>
       <c r="E83" s="1" t="inlineStr">
         <is>
-          <t>[{"Banco:": "Banco de Bogotá", "Número de Cuenta:": "1234567890", "Tipo de Cuenta:": "Corriente"}, {"Banco:": "Davivienda", "Número de Cuenta:": "0987654321", "Tipo de Cuenta:": "Ahorros"}]</t>
+          <t>[{"Banco:": "Banco de Bogotá", "Número de cuenta:": "1234567890"}, {"Banco:": "Davivienda", "Número de cuenta:": "0987654321"}]</t>
         </is>
       </c>
       <c r="F83" s="1" t="n"/>
@@ -5509,7 +5485,7 @@
       </c>
       <c r="E84" s="1" t="inlineStr">
         <is>
-          <t>[{"Empresa:": "Insumos Industriales S.A.", "Contacto:": "Laura Martínez", "Teléfono:": "+57 1 2345678"}, {"Empresa:": "Servicios Logísticos Ltda.", "Contacto:": "Pedro Sánchez", "Teléfono:": "+57 1 8765432"}]</t>
+          <t>[{"Empresa:": "Materiales de Construcción S.A.", "Contacto:": "Laura Sánchez", "Teléfono:": "+57 4 5554321"}, {"Empresa:": "Servicios Eléctricos Ltda.", "Contacto:": "Miguel Torres", "Teléfono:": "+57 4 5559876"}]</t>
         </is>
       </c>
       <c r="F84" s="1" t="n"/>

--- a/sample_output.xlsx
+++ b/sample_output.xlsx
@@ -1198,7 +1198,7 @@
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>Constructora Soluciones S.A.S.</t>
+          <t>Servicios Integrales S.A.S.</t>
         </is>
       </c>
       <c r="E8" s="1" t="n"/>
@@ -1260,7 +1260,7 @@
       </c>
       <c r="AX8" s="19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AY8" s="9" t="n"/>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>Carlos Andrés Martínez</t>
+          <t>María Fernanda López</t>
         </is>
       </c>
       <c r="E9" s="1" t="n"/>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="AM9" s="1" t="inlineStr">
         <is>
-          <t>1023456789</t>
+          <t>1234567890</t>
         </is>
       </c>
       <c r="AN9" s="19" t="n"/>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>Calle 45 # 23-67, Barrio La Esperanza</t>
+          <t>Calle 45 # 67-89</t>
         </is>
       </c>
       <c r="E11" s="1" t="n"/>
@@ -1458,7 +1458,7 @@
       </c>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>Medellín</t>
+          <t>Bogotá</t>
         </is>
       </c>
       <c r="E12" s="1" t="n"/>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="AB12" s="1" t="inlineStr">
         <is>
-          <t>Antioquia</t>
+          <t>Cundinamarca</t>
         </is>
       </c>
       <c r="AC12" s="1" t="n"/>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>+57 4 5551234</t>
+          <t>+57 1 2345678</t>
         </is>
       </c>
       <c r="E13" s="1" t="n"/>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="Y13" s="1" t="inlineStr">
         <is>
-          <t>contacto@constructorasoluciones.com</t>
+          <t>contacto@serviciosintegrales.com</t>
         </is>
       </c>
       <c r="Z13" s="1" t="n"/>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="W14" s="1" t="inlineStr">
         <is>
-          <t>https://www.constructorasoluciones.com</t>
+          <t>www.serviciosintegrales.com</t>
         </is>
       </c>
       <c r="X14" s="1" t="n"/>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="D16" s="1" t="inlineStr">
         <is>
-          <t>Construcción de edificaciones</t>
+          <t>Servicios de consultoría</t>
         </is>
       </c>
       <c r="E16" s="1" t="n"/>
@@ -1740,7 +1740,7 @@
       </c>
       <c r="AL16" s="1" t="inlineStr">
         <is>
-          <t>4120</t>
+          <t>7020</t>
         </is>
       </c>
       <c r="AM16" s="1" t="n"/>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>Ana María Gómez Pérez</t>
+          <t>María Fernanda López Pérez</t>
         </is>
       </c>
       <c r="E21" s="1" t="n"/>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="D22" s="1" t="inlineStr">
         <is>
-          <t>1985-07-12</t>
+          <t>1985-06-15</t>
         </is>
       </c>
       <c r="E22" s="1" t="n"/>
@@ -2040,7 +2040,7 @@
       </c>
       <c r="S22" s="30" t="inlineStr">
         <is>
-          <t>Medellín</t>
+          <t>Bogotá</t>
         </is>
       </c>
       <c r="T22" s="30" t="n"/>
@@ -2132,7 +2132,7 @@
       </c>
       <c r="AD23" s="1" t="inlineStr">
         <is>
-          <t>Medellín</t>
+          <t>Bogotá</t>
         </is>
       </c>
       <c r="AE23" s="1" t="n"/>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="D24" s="1" t="inlineStr">
         <is>
-          <t>2003-05-20</t>
+          <t>2005-01-10</t>
         </is>
       </c>
       <c r="E24" s="1" t="n"/>
@@ -2190,7 +2190,7 @@
       </c>
       <c r="S24" s="1" t="inlineStr">
         <is>
-          <t>Carrera 10 # 45-32, Medellín</t>
+          <t>Carrera 10 # 20-30</t>
         </is>
       </c>
       <c r="T24" s="1" t="n"/>
@@ -2217,11 +2217,7 @@
           <t>Ciudad</t>
         </is>
       </c>
-      <c r="AN24" s="1" t="inlineStr">
-        <is>
-          <t>Medellín</t>
-        </is>
-      </c>
+      <c r="AN24" s="1" t="n"/>
       <c r="AO24" s="1" t="n"/>
       <c r="AP24" s="66" t="n"/>
       <c r="AQ24" s="62" t="n"/>
@@ -2244,7 +2240,7 @@
       </c>
       <c r="D25" s="1" t="inlineStr">
         <is>
-          <t>anamaria.gomez@gmail.com</t>
+          <t>notificaciones@serviciosintegrales.com</t>
         </is>
       </c>
       <c r="E25" s="1" t="n"/>
@@ -2277,7 +2273,7 @@
       </c>
       <c r="AC25" s="1" t="inlineStr">
         <is>
-          <t>+57 310 4567890</t>
+          <t>+57 1 9876543</t>
         </is>
       </c>
       <c r="AD25" s="1" t="n"/>
@@ -2378,7 +2374,7 @@
       </c>
       <c r="E28" s="1" t="inlineStr">
         <is>
-          <t>Juan Carlos Ramírez</t>
+          <t>Carlos Alberto Gómez</t>
         </is>
       </c>
       <c r="F28" s="1" t="n"/>
@@ -2415,7 +2411,7 @@
       </c>
       <c r="AH28" s="1" t="inlineStr">
         <is>
-          <t>1098765432</t>
+          <t>9876543210</t>
         </is>
       </c>
       <c r="AI28" s="1" t="n"/>
@@ -2434,7 +2430,7 @@
       </c>
       <c r="AS28" s="1" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="AT28" s="1" t="n"/>
@@ -2855,7 +2851,7 @@
       </c>
       <c r="D37" s="1" t="inlineStr">
         <is>
-          <t>[{"Descripción:": "Oficina principal en Medellín", "Valor:": 350000000}]</t>
+          <t>Oficina en el centro de Bogotá</t>
         </is>
       </c>
       <c r="E37" s="1" t="n"/>
@@ -2917,7 +2913,11 @@
           <t>Descripción:</t>
         </is>
       </c>
-      <c r="E38" s="1" t="n"/>
+      <c r="E38" s="1" t="inlineStr">
+        <is>
+          <t>Oficina de 100 m2 en edificio empresarial</t>
+        </is>
+      </c>
       <c r="F38" s="1" t="n"/>
       <c r="G38" s="1" t="n"/>
       <c r="H38" s="1" t="n"/>
@@ -2960,7 +2960,11 @@
           <t>Valor:</t>
         </is>
       </c>
-      <c r="AN38" s="1" t="n"/>
+      <c r="AN38" s="1" t="inlineStr">
+        <is>
+          <t>300000000</t>
+        </is>
+      </c>
       <c r="AO38" s="1" t="n"/>
       <c r="AP38" s="35" t="inlineStr">
         <is>
@@ -3111,7 +3115,7 @@
       </c>
       <c r="D41" s="1" t="inlineStr">
         <is>
-          <t>[{"Tipo/Modelo:": "Camioneta Toyota Hilux", "Marca:": "Toyota", "Año:": 2019, "Placa:": "ABC123"}]</t>
+          <t>Toyota Corolla</t>
         </is>
       </c>
       <c r="E41" s="1" t="n"/>
@@ -3173,7 +3177,11 @@
           <t>Tipo/Modelo:</t>
         </is>
       </c>
-      <c r="E42" s="1" t="n"/>
+      <c r="E42" s="1" t="inlineStr">
+        <is>
+          <t>Sedán</t>
+        </is>
+      </c>
       <c r="F42" s="1" t="n"/>
       <c r="G42" s="1" t="n"/>
       <c r="H42" s="1" t="n"/>
@@ -3198,7 +3206,11 @@
           <t>Marca:</t>
         </is>
       </c>
-      <c r="Z42" s="1" t="n"/>
+      <c r="Z42" s="1" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
       <c r="AA42" s="1" t="n"/>
       <c r="AB42" s="19" t="n"/>
       <c r="AC42" s="60" t="n"/>
@@ -3213,7 +3225,11 @@
           <t>Año:</t>
         </is>
       </c>
-      <c r="AK42" s="1" t="n"/>
+      <c r="AK42" s="1" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
       <c r="AL42" s="19" t="n"/>
       <c r="AM42" s="60" t="n"/>
       <c r="AN42" s="60" t="n"/>
@@ -3224,7 +3240,11 @@
           <t>Placa:</t>
         </is>
       </c>
-      <c r="AR42" s="1" t="n"/>
+      <c r="AR42" s="1" t="inlineStr">
+        <is>
+          <t>ABC123</t>
+        </is>
+      </c>
       <c r="AS42" s="1" t="n"/>
       <c r="AT42" s="19" t="n"/>
       <c r="AU42" s="60" t="n"/>
@@ -3487,7 +3507,7 @@
       </c>
       <c r="D48" s="1" t="inlineStr">
         <is>
-          <t>[{"Empresa:": "Ferretería Central", "Límite:": 50000000, "Plazo de Pago:": "30 días", "Antigüedad (mes/año):": "24 meses", "Garantía:": "Carta de crédito"}]</t>
+          <t>[{"Empresa:": "Compañía XYZ S.A.", "Límite:": "50000000", "Plazo de Pago:": "30 días", "Antigüedad (mes/año):": "5/2020", "Garantía:": "Ninguna"}, {"Empresa:": "Servicios ABC Ltda.", "Límite:": "30000000", "Plazo de Pago:": "15 días", "Antigüedad (mes/año):": "3/2021", "Garantía:": "Ninguna"}]</t>
         </is>
       </c>
       <c r="E48" s="1" t="n"/>
@@ -4313,7 +4333,7 @@
       </c>
       <c r="AL62" s="1" t="inlineStr">
         <is>
-          <t>+57 4 5556789</t>
+          <t>+57 1 2345678</t>
         </is>
       </c>
       <c r="AM62" s="1" t="n"/>
@@ -4818,7 +4838,7 @@
       </c>
       <c r="D72" s="1" t="inlineStr">
         <is>
-          <t>Carlos Andrés Martínez</t>
+          <t>María Fernanda López</t>
         </is>
       </c>
       <c r="E72" s="1" t="n"/>
@@ -4917,7 +4937,7 @@
       </c>
       <c r="AH73" s="1" t="inlineStr">
         <is>
-          <t>Medellín, 2024-06-15</t>
+          <t>Bogotá, 2023-10-01</t>
         </is>
       </c>
       <c r="AI73" s="1" t="n"/>
@@ -5359,7 +5379,7 @@
       </c>
       <c r="E82" s="1" t="inlineStr">
         <is>
-          <t>fotocopia_cedula_carlos_martinez.pdf</t>
+          <t>URL_to_fotocopia_cedula</t>
         </is>
       </c>
       <c r="F82" s="1" t="n"/>
@@ -5422,7 +5442,7 @@
       </c>
       <c r="E83" s="1" t="inlineStr">
         <is>
-          <t>[{"Banco:": "Banco de Bogotá", "Número de cuenta:": "1234567890"}, {"Banco:": "Davivienda", "Número de cuenta:": "0987654321"}]</t>
+          <t>[{"Banco:": "Banco de Bogotá", "Cuenta:": "123456789", "Teléfono:": "+57 1 2345678"}, {"Banco:": "Bancolombia", "Cuenta:": "987654321", "Teléfono:": "+57 1 8765432"}]</t>
         </is>
       </c>
       <c r="F83" s="1" t="n"/>
@@ -5485,7 +5505,7 @@
       </c>
       <c r="E84" s="1" t="inlineStr">
         <is>
-          <t>[{"Empresa:": "Materiales de Construcción S.A.", "Contacto:": "Laura Sánchez", "Teléfono:": "+57 4 5554321"}, {"Empresa:": "Servicios Eléctricos Ltda.", "Contacto:": "Miguel Torres", "Teléfono:": "+57 4 5559876"}]</t>
+          <t>[{"Empresa:": "Compañía XYZ S.A.", "Contacto:": "Juan Pérez", "Teléfono:": "+57 1 2345678"}, {"Empresa:": "Servicios ABC Ltda.", "Contacto:": "Ana Gómez", "Teléfono:": "+57 1 8765432"}]</t>
         </is>
       </c>
       <c r="F84" s="1" t="n"/>
